--- a/campos.xlsx
+++ b/campos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local_web\websites\sivin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E79755E4-0A7B-419C-8E9F-AF6D0E08BD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4E104-65FD-4A1F-8180-94697F7D6B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{8CDF12FF-609D-4C5E-81BB-1AEE8406AC07}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="2" xr2:uid="{8CDF12FF-609D-4C5E-81BB-1AEE8406AC07}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
   <si>
     <t>NotificacionId</t>
   </si>
@@ -257,6 +258,177 @@
   </si>
   <si>
     <t xml:space="preserve"> NotVpc</t>
+  </si>
+  <si>
+    <t>IdNoti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IdNiño</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZPesoEdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZTallaEdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZIMCEdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MotNom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SevoNom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SclinNom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ordena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aoresi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IdCtrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dias_transcurridos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> retraso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vigilante</t>
+  </si>
+  <si>
+    <t>' RegistroId' =&gt; $origenRow[' IdNiño'],</t>
+  </si>
+  <si>
+    <t>' NotificacionFecha' =&gt; $origenRow[' Fecha'],</t>
+  </si>
+  <si>
+    <t>' NotificacionPeso' =&gt; $origenRow[' Peso'],</t>
+  </si>
+  <si>
+    <t>' NotificacionZscorePeso' =&gt; $origenRow[' ZPesoEdad'],</t>
+  </si>
+  <si>
+    <t>' NotificacionTalla' =&gt; $origenRow[' Talla'],</t>
+  </si>
+  <si>
+    <t>' NotificacionZscoreTalla' =&gt; $origenRow[' ZTallaEdad'],</t>
+  </si>
+  <si>
+    <t>' NotificacionZscoreImc' =&gt; $origenRow[' ZIMCEdad'],</t>
+  </si>
+  <si>
+    <t>' NotificacionSevClasId' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>'NotificacionId' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionFchIns' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionEstaBIns' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionEdad' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionLugAtenc' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionFchInternac' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionDiagIDIntern' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionFchAltaIntern' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionIMC' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionObsAntrop' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionDesnutricion' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionUsuNot' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionFchBaja' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionUsuBaja' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionSeClasId' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionSeDxNuId' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionSevDxNuId' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionSgClasId' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionSgDxNuId' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionDiagObserva' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionzpr' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionzpg' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionzpb' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionztr' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionztg' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionztb' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionzir' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionzig' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' Notificacionzib' =&gt;'NULL',</t>
   </si>
 </sst>
 </file>
@@ -292,8 +464,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,341 +911,631 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50CBF31-9D72-4FE5-AC5A-DCD6433EB2C7}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7B15F0-6B3F-4790-B7B2-7A931975F545}">
-  <dimension ref="B2:E38"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("'",B2,"' =&gt; $origenRow['",C2,"'],")</f>
+        <v>'NotificacionId' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F38" si="0">CONCATENATE("'",B3,"' =&gt; $origenRow['",C3,"'],")</f>
+        <v>' RegistroId' =&gt; $origenRow[' IdNiño'],</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionFchIns' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionEstaBIns' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionEdad' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionFecha' =&gt; $origenRow[' Fecha'],</v>
+      </c>
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionLugAtenc' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionFchInternac' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionDiagIDIntern' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionFchAltaIntern' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionPeso' =&gt; $origenRow[' Peso'],</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionZscorePeso' =&gt; $origenRow[' ZPesoEdad'],</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionTalla' =&gt; $origenRow[' Talla'],</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
       <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionZscoreTalla' =&gt; $origenRow[' ZTallaEdad'],</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
       <c r="E16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionIMC' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionZscoreImc' =&gt; $origenRow[' ZIMCEdad'],</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
       <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionObsAntrop' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionDesnutricion' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionUsuNot' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionFchBaja' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionUsuBaja' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionSeClasId' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionSeDxNuId' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionSevClasId' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionSevDxNuId' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionSgClasId' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionSgDxNuId' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>' NotificacionDiagObserva' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionzpr' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionzpg' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionzpb' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionztr' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionztg' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionztb' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionzir' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionzig' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="E38" t="s">
-        <v>73</v>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>' Notificacionzib' =&gt; $origenRow[''],</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/campos.xlsx
+++ b/campos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local_web\websites\sivin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4E104-65FD-4A1F-8180-94697F7D6B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7A875C-5853-460E-A64E-DC58EF7BF914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="2" xr2:uid="{8CDF12FF-609D-4C5E-81BB-1AEE8406AC07}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="143">
   <si>
     <t>NotificacionId</t>
   </si>
@@ -429,6 +430,42 @@
   </si>
   <si>
     <t>' Notificacionzib' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>'NotificacionId' =&gt; 'NULL',</t>
+  </si>
+  <si>
+    <t>'RegistroId' =&gt; $origenRow['IdNiño'],</t>
+  </si>
+  <si>
+    <t>'NotificacionFchIns' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>'NotificacionEstaBIns' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>'NotificacionEdad' =&gt;'NULL',</t>
+  </si>
+  <si>
+    <t>' NotificacionFecha' =&gt; $origenRow['Fecha'],</t>
+  </si>
+  <si>
+    <t>' NotificacionPeso' =&gt; $origenRow['Peso'],</t>
+  </si>
+  <si>
+    <t>' NotificacionZscorePeso' =&gt; $origenRow['ZPesoEdad'],</t>
+  </si>
+  <si>
+    <t>' NotificacionTalla' =&gt; $origenRow['Talla'],</t>
+  </si>
+  <si>
+    <t>' NotificacionZscoreTalla' =&gt; $origenRow['ZTallaEdad'],</t>
+  </si>
+  <si>
+    <t>' NotificacionZscoreImc' =&gt; $origenRow['ZIMCEdad'],</t>
+  </si>
+  <si>
+    <t>' Notificacionzib' =&gt;'NULL'</t>
   </si>
 </sst>
 </file>
@@ -992,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7B15F0-6B3F-4790-B7B2-7A931975F545}">
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,9 +1041,11 @@
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1020,8 +1059,14 @@
       <c r="G2" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1038,8 +1083,14 @@
       <c r="G3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1053,8 +1104,14 @@
       <c r="G4" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1068,8 +1125,14 @@
       <c r="G5" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1146,14 @@
       <c r="G6" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1101,8 +1170,14 @@
       <c r="G7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1116,8 +1191,14 @@
       <c r="G8" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1131,8 +1212,14 @@
       <c r="G9" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1233,14 @@
       <c r="G10" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1161,8 +1254,14 @@
       <c r="G11" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1179,8 +1278,14 @@
       <c r="G12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1197,8 +1302,14 @@
       <c r="G13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1215,8 +1326,14 @@
       <c r="G14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1233,8 +1350,14 @@
       <c r="G15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1248,8 +1371,14 @@
       <c r="G16" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1266,8 +1395,14 @@
       <c r="G17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1281,8 +1416,14 @@
       <c r="G18" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -1296,8 +1437,14 @@
       <c r="G19" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1311,8 +1458,14 @@
       <c r="G20" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -1326,8 +1479,14 @@
       <c r="G21" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1341,8 +1500,14 @@
       <c r="G22" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1353,8 +1518,14 @@
       <c r="G23" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -1365,8 +1536,14 @@
       <c r="G24" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1377,8 +1554,14 @@
       <c r="G25" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1389,8 +1572,14 @@
       <c r="G26" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1401,8 +1590,14 @@
       <c r="G27" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1413,8 +1608,14 @@
       <c r="G28" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1425,8 +1626,14 @@
       <c r="G29" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -1437,8 +1644,14 @@
       <c r="G30" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -1449,8 +1662,14 @@
       <c r="G31" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1461,8 +1680,14 @@
       <c r="G32" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1473,8 +1698,14 @@
       <c r="G33" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -1485,8 +1716,14 @@
       <c r="G34" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -1497,8 +1734,14 @@
       <c r="G35" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -1509,8 +1752,14 @@
       <c r="G36" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -1521,8 +1770,14 @@
       <c r="G37" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -1532,10 +1787,333 @@
       </c>
       <c r="G38" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB626AF0-E3CD-4764-A36A-A542A80BCF2B}">
+  <dimension ref="A1:AK41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>